--- a/sbs/openai_davinci_003_openai_davinci_002.xlsx
+++ b/sbs/openai_davinci_003_openai_davinci_002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0130138-6F5D-BD41-A3AF-78C99C5BB5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11A22FC-7882-D049-8285-2E1AF67A90BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2248,7 +2248,9 @@
       <c r="D34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -2263,7 +2265,9 @@
       <c r="D35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -2278,7 +2282,9 @@
       <c r="D36" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -2293,7 +2299,9 @@
       <c r="D37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
@@ -2308,7 +2316,9 @@
       <c r="D38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -2323,7 +2333,9 @@
       <c r="D39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -2338,7 +2350,9 @@
       <c r="D40" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -2353,7 +2367,9 @@
       <c r="D41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -2368,7 +2384,9 @@
       <c r="D42" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -2383,7 +2401,9 @@
       <c r="D43" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -2398,7 +2418,9 @@
       <c r="D44" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -2413,7 +2435,9 @@
       <c r="D45" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
@@ -2428,7 +2452,9 @@
       <c r="D46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -2443,7 +2469,9 @@
       <c r="D47" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -2458,7 +2486,9 @@
       <c r="D48" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
@@ -2473,7 +2503,9 @@
       <c r="D49" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -2488,7 +2520,9 @@
       <c r="D50" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
@@ -2503,7 +2537,9 @@
       <c r="D51" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
@@ -2518,7 +2554,9 @@
       <c r="D52" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -2533,7 +2571,9 @@
       <c r="D53" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
@@ -2548,7 +2588,9 @@
       <c r="D54" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
